--- a/FOMCData.xlsx
+++ b/FOMCData.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S596"/>
+  <dimension ref="A1:S605"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29005,6 +29005,495 @@
       </c>
       <c r="S596" t="inlineStr"/>
     </row>
+    <row r="597">
+      <c r="A597" s="2" t="n">
+        <v>31454</v>
+      </c>
+      <c r="B597" s="2" t="n">
+        <v>31455</v>
+      </c>
+      <c r="C597" t="n">
+        <v>1</v>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>Meeting</t>
+        </is>
+      </c>
+      <c r="E597" t="n">
+        <v>0</v>
+      </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>Documents/Record of Policy Actions/1986/fomcropa19860212.pdf</t>
+        </is>
+      </c>
+      <c r="G597" t="inlineStr">
+        <is>
+          <t>Documents/Minutes/1986/fomcmoa19860212.pdf</t>
+        </is>
+      </c>
+      <c r="H597" t="inlineStr"/>
+      <c r="I597" t="inlineStr"/>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>Documents/Greenbook/1986/fomc19860212gbpt119860205.pdf;Documents/Greenbook/1986/fomc19860212gbpt219860205.pdf</t>
+        </is>
+      </c>
+      <c r="L597" t="inlineStr">
+        <is>
+          <t>Documents/Bluebook/1986/fomc19860212bluebook19860207.pdf</t>
+        </is>
+      </c>
+      <c r="M597" t="inlineStr"/>
+      <c r="N597" t="inlineStr"/>
+      <c r="O597" t="inlineStr"/>
+      <c r="P597" t="inlineStr"/>
+      <c r="Q597" t="inlineStr">
+        <is>
+          <t>Documents/Supplement/1986/fomc19860212gbsup19860207.pdf</t>
+        </is>
+      </c>
+      <c r="R597" t="inlineStr">
+        <is>
+          <t>Documents/Transcript/1986/FOMC19860212meeting.pdf</t>
+        </is>
+      </c>
+      <c r="S597" t="inlineStr"/>
+    </row>
+    <row r="598">
+      <c r="A598" s="2" t="n">
+        <v>31503</v>
+      </c>
+      <c r="B598" s="2" t="n">
+        <v>31503</v>
+      </c>
+      <c r="C598" t="n">
+        <v>0</v>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>Meeting</t>
+        </is>
+      </c>
+      <c r="E598" t="n">
+        <v>0</v>
+      </c>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>Documents/Record of Policy Actions/1986/fomcropa19860401.pdf</t>
+        </is>
+      </c>
+      <c r="G598" t="inlineStr">
+        <is>
+          <t>Documents/Minutes/1986/fomcmoa19860401.pdf</t>
+        </is>
+      </c>
+      <c r="H598" t="inlineStr"/>
+      <c r="I598" t="inlineStr"/>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>Documents/Greenbook/1986/fomc19860401gbpt119860326.pdf;Documents/Greenbook/1986/fomc19860401gbpt219860326.pdf</t>
+        </is>
+      </c>
+      <c r="L598" t="inlineStr">
+        <is>
+          <t>Documents/Bluebook/1986/fomc19860401bluebook19860328.pdf</t>
+        </is>
+      </c>
+      <c r="M598" t="inlineStr"/>
+      <c r="N598" t="inlineStr"/>
+      <c r="O598" t="inlineStr"/>
+      <c r="P598" t="inlineStr"/>
+      <c r="Q598" t="inlineStr">
+        <is>
+          <t>Documents/Supplement/1986/fomc19860401gbsup19860328.pdf</t>
+        </is>
+      </c>
+      <c r="R598" t="inlineStr">
+        <is>
+          <t>Documents/Transcript/1986/FOMC19860401meeting.pdf</t>
+        </is>
+      </c>
+      <c r="S598" t="inlineStr"/>
+    </row>
+    <row r="599">
+      <c r="A599" s="2" t="n">
+        <v>31523</v>
+      </c>
+      <c r="B599" s="2" t="n">
+        <v>31523</v>
+      </c>
+      <c r="C599" t="n">
+        <v>0</v>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>Conference Call</t>
+        </is>
+      </c>
+      <c r="E599" t="n">
+        <v>0</v>
+      </c>
+      <c r="F599" t="inlineStr"/>
+      <c r="G599" t="inlineStr"/>
+      <c r="H599" t="inlineStr"/>
+      <c r="I599" t="inlineStr"/>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
+      <c r="L599" t="inlineStr"/>
+      <c r="M599" t="inlineStr"/>
+      <c r="N599" t="inlineStr"/>
+      <c r="O599" t="inlineStr"/>
+      <c r="P599" t="inlineStr"/>
+      <c r="Q599" t="inlineStr"/>
+      <c r="R599" t="inlineStr"/>
+      <c r="S599" t="inlineStr"/>
+    </row>
+    <row r="600">
+      <c r="A600" s="2" t="n">
+        <v>31552</v>
+      </c>
+      <c r="B600" s="2" t="n">
+        <v>31552</v>
+      </c>
+      <c r="C600" t="n">
+        <v>0</v>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>Meeting</t>
+        </is>
+      </c>
+      <c r="E600" t="n">
+        <v>0</v>
+      </c>
+      <c r="F600" t="inlineStr">
+        <is>
+          <t>Documents/Record of Policy Actions/1986/fomcropa19860520.pdf</t>
+        </is>
+      </c>
+      <c r="G600" t="inlineStr">
+        <is>
+          <t>Documents/Minutes/1986/fomcmoa19860520.pdf</t>
+        </is>
+      </c>
+      <c r="H600" t="inlineStr"/>
+      <c r="I600" t="inlineStr"/>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>Documents/Greenbook/1986/fomc19860520gbpt119860514.pdf;Documents/Greenbook/1986/fomc19860520gbpt219860514.pdf</t>
+        </is>
+      </c>
+      <c r="L600" t="inlineStr">
+        <is>
+          <t>Documents/Bluebook/1986/fomc19860520bluebook19860516.pdf</t>
+        </is>
+      </c>
+      <c r="M600" t="inlineStr"/>
+      <c r="N600" t="inlineStr"/>
+      <c r="O600" t="inlineStr"/>
+      <c r="P600" t="inlineStr"/>
+      <c r="Q600" t="inlineStr">
+        <is>
+          <t>Documents/Supplement/1986/fomc19860520gbsup19860516.pdf</t>
+        </is>
+      </c>
+      <c r="R600" t="inlineStr">
+        <is>
+          <t>Documents/Transcript/1986/FOMC19860520meeting.pdf</t>
+        </is>
+      </c>
+      <c r="S600" t="inlineStr"/>
+    </row>
+    <row r="601">
+      <c r="A601" s="2" t="n">
+        <v>31601</v>
+      </c>
+      <c r="B601" s="2" t="n">
+        <v>31602</v>
+      </c>
+      <c r="C601" t="n">
+        <v>1</v>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>Meeting</t>
+        </is>
+      </c>
+      <c r="E601" t="n">
+        <v>0</v>
+      </c>
+      <c r="F601" t="inlineStr">
+        <is>
+          <t>Documents/Record of Policy Actions/1986/fomcropa19860709.pdf</t>
+        </is>
+      </c>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>Documents/Minutes/1986/fomcmoa19860709.pdf</t>
+        </is>
+      </c>
+      <c r="H601" t="inlineStr"/>
+      <c r="I601" t="inlineStr"/>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>Documents/Greenbook/1986/fomc19860709gbpt119860702.pdf;Documents/Greenbook/1986/fomc19860709gbpt219860702.pdf</t>
+        </is>
+      </c>
+      <c r="L601" t="inlineStr">
+        <is>
+          <t>Documents/Bluebook/1986/fomc19860709bluebook19860703.pdf</t>
+        </is>
+      </c>
+      <c r="M601" t="inlineStr"/>
+      <c r="N601" t="inlineStr"/>
+      <c r="O601" t="inlineStr"/>
+      <c r="P601" t="inlineStr"/>
+      <c r="Q601" t="inlineStr">
+        <is>
+          <t>Documents/Supplement/1986/fomc19860709gbsup19860703.pdf</t>
+        </is>
+      </c>
+      <c r="R601" t="inlineStr">
+        <is>
+          <t>Documents/Transcript/1986/FOMC19860709meeting.pdf</t>
+        </is>
+      </c>
+      <c r="S601" t="inlineStr"/>
+    </row>
+    <row r="602">
+      <c r="A602" s="2" t="n">
+        <v>31643</v>
+      </c>
+      <c r="B602" s="2" t="n">
+        <v>31643</v>
+      </c>
+      <c r="C602" t="n">
+        <v>0</v>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>Meeting</t>
+        </is>
+      </c>
+      <c r="E602" t="n">
+        <v>0</v>
+      </c>
+      <c r="F602" t="inlineStr">
+        <is>
+          <t>Documents/Record of Policy Actions/1986/fomcropa19860819.pdf</t>
+        </is>
+      </c>
+      <c r="G602" t="inlineStr">
+        <is>
+          <t>Documents/Minutes/1986/fomcmoa19860819.pdf</t>
+        </is>
+      </c>
+      <c r="H602" t="inlineStr"/>
+      <c r="I602" t="inlineStr"/>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>Documents/Greenbook/1986/fomc19860819gbpt119860813.pdf;Documents/Greenbook/1986/fomc19860819gbpt219860813.pdf</t>
+        </is>
+      </c>
+      <c r="L602" t="inlineStr">
+        <is>
+          <t>Documents/Bluebook/1986/fomc19860819bluebook19860815.pdf</t>
+        </is>
+      </c>
+      <c r="M602" t="inlineStr"/>
+      <c r="N602" t="inlineStr"/>
+      <c r="O602" t="inlineStr"/>
+      <c r="P602" t="inlineStr"/>
+      <c r="Q602" t="inlineStr">
+        <is>
+          <t>Documents/Supplement/1986/fomc19860819gbsup19860815.pdf</t>
+        </is>
+      </c>
+      <c r="R602" t="inlineStr">
+        <is>
+          <t>Documents/Transcript/1986/FOMC19860819meeting.pdf</t>
+        </is>
+      </c>
+      <c r="S602" t="inlineStr"/>
+    </row>
+    <row r="603">
+      <c r="A603" s="2" t="n">
+        <v>31678</v>
+      </c>
+      <c r="B603" s="2" t="n">
+        <v>31678</v>
+      </c>
+      <c r="C603" t="n">
+        <v>0</v>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>Meeting</t>
+        </is>
+      </c>
+      <c r="E603" t="n">
+        <v>0</v>
+      </c>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>Documents/Record of Policy Actions/1986/fomcropa19860923.pdf</t>
+        </is>
+      </c>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>Documents/Minutes/1986/fomcmoa19860923.pdf</t>
+        </is>
+      </c>
+      <c r="H603" t="inlineStr"/>
+      <c r="I603" t="inlineStr"/>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>Documents/Greenbook/1986/fomc19860923gbpt119860917.pdf;Documents/Greenbook/1986/fomc19860923gbpt219860917.pdf</t>
+        </is>
+      </c>
+      <c r="L603" t="inlineStr">
+        <is>
+          <t>Documents/Bluebook/1986/fomc19860923bluebook19860919.pdf</t>
+        </is>
+      </c>
+      <c r="M603" t="inlineStr"/>
+      <c r="N603" t="inlineStr"/>
+      <c r="O603" t="inlineStr"/>
+      <c r="P603" t="inlineStr"/>
+      <c r="Q603" t="inlineStr">
+        <is>
+          <t>Documents/Supplement/1986/fomc19860923gbsup19860919.pdf</t>
+        </is>
+      </c>
+      <c r="R603" t="inlineStr">
+        <is>
+          <t>Documents/Transcript/1986/FOMC19860923meeting.pdf</t>
+        </is>
+      </c>
+      <c r="S603" t="inlineStr"/>
+    </row>
+    <row r="604">
+      <c r="A604" s="2" t="n">
+        <v>31721</v>
+      </c>
+      <c r="B604" s="2" t="n">
+        <v>31721</v>
+      </c>
+      <c r="C604" t="n">
+        <v>0</v>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>Meeting</t>
+        </is>
+      </c>
+      <c r="E604" t="n">
+        <v>0</v>
+      </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>Documents/Record of Policy Actions/1986/fomcropa19861105.pdf</t>
+        </is>
+      </c>
+      <c r="G604" t="inlineStr">
+        <is>
+          <t>Documents/Minutes/1986/fomcmoa19861105.pdf</t>
+        </is>
+      </c>
+      <c r="H604" t="inlineStr"/>
+      <c r="I604" t="inlineStr"/>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>Documents/Greenbook/1986/fomc19861105gbpt119861029.pdf;Documents/Greenbook/1986/fomc19861105gbpt219861029.pdf</t>
+        </is>
+      </c>
+      <c r="L604" t="inlineStr">
+        <is>
+          <t>Documents/Bluebook/1986/fomc19861105bluebook19861031.pdf</t>
+        </is>
+      </c>
+      <c r="M604" t="inlineStr"/>
+      <c r="N604" t="inlineStr"/>
+      <c r="O604" t="inlineStr"/>
+      <c r="P604" t="inlineStr"/>
+      <c r="Q604" t="inlineStr">
+        <is>
+          <t>Documents/Supplement/1986/fomc19861105gbsup19861031.pdf</t>
+        </is>
+      </c>
+      <c r="R604" t="inlineStr">
+        <is>
+          <t>Documents/Transcript/1986/FOMC19861105meeting.pdf</t>
+        </is>
+      </c>
+      <c r="S604" t="inlineStr"/>
+    </row>
+    <row r="605">
+      <c r="A605" s="2" t="n">
+        <v>31761</v>
+      </c>
+      <c r="B605" s="2" t="n">
+        <v>31762</v>
+      </c>
+      <c r="C605" t="n">
+        <v>1</v>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>Meeting</t>
+        </is>
+      </c>
+      <c r="E605" t="n">
+        <v>0</v>
+      </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>Documents/Record of Policy Actions/1986/fomcropa19861216.pdf</t>
+        </is>
+      </c>
+      <c r="G605" t="inlineStr">
+        <is>
+          <t>Documents/Minutes/1986/fomcmoa19861216.pdf</t>
+        </is>
+      </c>
+      <c r="H605" t="inlineStr"/>
+      <c r="I605" t="inlineStr"/>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>Documents/Greenbook/1986/fomc19861216gbpt119861210.pdf;Documents/Greenbook/1986/fomc19861216gbpt219861210.pdf</t>
+        </is>
+      </c>
+      <c r="L605" t="inlineStr">
+        <is>
+          <t>Documents/Bluebook/1986/fomc19861216bluebook19861212.pdf</t>
+        </is>
+      </c>
+      <c r="M605" t="inlineStr"/>
+      <c r="N605" t="inlineStr"/>
+      <c r="O605" t="inlineStr"/>
+      <c r="P605" t="inlineStr"/>
+      <c r="Q605" t="inlineStr">
+        <is>
+          <t>Documents/Supplement/1986/fomc19861216gbsup19861212.pdf</t>
+        </is>
+      </c>
+      <c r="R605" t="inlineStr">
+        <is>
+          <t>Documents/Transcript/1986/FOMC19861216meeting.pdf</t>
+        </is>
+      </c>
+      <c r="S605" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
